--- a/Ajith_AzentioULSFrameworkSubProductRetail/Test-data/ULSTestData.xlsx
+++ b/Ajith_AzentioULSFrameworkSubProductRetail/Test-data/ULSTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AllMastersTestDataInfo" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="ReportMasterTestData1" sheetId="6" r:id="rId6"/>
     <sheet name="SupProductRetailTestData" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="548">
   <si>
     <t>Master Screen Name</t>
   </si>
@@ -1124,18 +1124,6 @@
     <t>Lending</t>
   </si>
   <si>
-    <t>Happy flow</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>TestDescription2</t>
-  </si>
-  <si>
-    <t>Convention center</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
@@ -1151,15 +1139,9 @@
     <t>11th of the month</t>
   </si>
   <si>
-    <t>Legacy3</t>
-  </si>
-  <si>
     <t>Legacy4</t>
   </si>
   <si>
-    <t>DMC2</t>
-  </si>
-  <si>
     <t>AT-SPR-T001_D3</t>
   </si>
   <si>
@@ -1214,9 +1196,6 @@
     <t>AT-SPR-T003_D1</t>
   </si>
   <si>
-    <t>7640</t>
-  </si>
-  <si>
     <t>Rejected By Checker</t>
   </si>
   <si>
@@ -1535,37 +1514,160 @@
     <t>AT-SPR-001_D16</t>
   </si>
   <si>
-    <t>7644</t>
-  </si>
-  <si>
     <t>PrefixCode</t>
   </si>
   <si>
     <t>PrefixDescription</t>
   </si>
   <si>
+    <t>7651</t>
+  </si>
+  <si>
+    <t>0183</t>
+  </si>
+  <si>
+    <t>Test1293</t>
+  </si>
+  <si>
+    <t>TestDescription1242</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>6399</t>
+  </si>
+  <si>
+    <t>Checker4</t>
+  </si>
+  <si>
+    <t>Checker5</t>
+  </si>
+  <si>
+    <t>Checker6</t>
+  </si>
+  <si>
+    <t>0221</t>
+  </si>
+  <si>
+    <t>0326</t>
+  </si>
+  <si>
+    <t>Checker7</t>
+  </si>
+  <si>
+    <t>0350</t>
+  </si>
+  <si>
+    <t>Checker8</t>
+  </si>
+  <si>
+    <t>0306</t>
+  </si>
+  <si>
+    <t>Test1312</t>
+  </si>
+  <si>
+    <t>TestDescription1209</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>6414</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0193</t>
+  </si>
+  <si>
+    <t>Test1435</t>
+  </si>
+  <si>
+    <t>TestDescription1307</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>6415</t>
+  </si>
+  <si>
+    <t>0185</t>
+  </si>
+  <si>
     <t>Test1217</t>
   </si>
   <si>
-    <t>TestDescription1294</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>7649</t>
-  </si>
-  <si>
-    <t>Test2276</t>
-  </si>
-  <si>
-    <t>TestDescription2444</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>7651</t>
+    <t>TestDescription1338</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>6417</t>
+  </si>
+  <si>
+    <t>0294</t>
+  </si>
+  <si>
+    <t>Test1351</t>
+  </si>
+  <si>
+    <t>TestDescription1152</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>0309</t>
+  </si>
+  <si>
+    <t>Test1376</t>
+  </si>
+  <si>
+    <t>TestDescription1284</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>6420</t>
+  </si>
+  <si>
+    <t>Test1413</t>
+  </si>
+  <si>
+    <t>TestDescription1145</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>6421</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>6423</t>
+  </si>
+  <si>
+    <t>Test1108</t>
+  </si>
+  <si>
+    <t>TestDescription1499</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>6424</t>
+  </si>
+  <si>
+    <t>0282</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1676,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="&quot;Rs.&quot;#,##0.00;[Red]\-&quot;Rs.&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;Rs.&quot;#,##0.00;[Red]\-&quot;Rs.&quot;#,##0.00"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1716,7 +1818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1839,11 +1941,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1854,7 +1980,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2007,6 +2133,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel_20_Built-in_20_Hyperlink" xfId="7"/>
@@ -3587,10 +3722,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -3673,13 +3808,70 @@
       <c r="B7" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="71" t="s">
+        <v>504</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>507</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="71" t="s">
+        <v>505</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>499</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="71" t="s">
+        <v>506</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>508</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="82" t="s">
+        <v>509</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>510</v>
+      </c>
+      <c r="C11" s="70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="79" t="s">
+        <v>511</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="81" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C10" r:id="rId2"/>
+    <hyperlink ref="C11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="1.045275590551181" bottom="1.045275590551181" header="0.84842519685039375" footer="0.84842519685039375"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4246,8 +4438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DK24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -4257,8 +4449,7 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.7734375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.59375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="29.5703125" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="16.28125" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="28.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="22.09765625" collapsed="true"/>
@@ -4383,13 +4574,13 @@
         <v>210</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="H1" s="58" t="s">
         <v>211</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="J1" s="58" t="s">
         <v>212</v>
@@ -4718,9 +4909,11 @@
         <v>317</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2" s="60"/>
+        <v>546</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>547</v>
+      </c>
       <c r="E2" s="61" t="s">
         <v>318</v>
       </c>
@@ -4731,13 +4924,13 @@
         <v>320</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="I2" s="62" t="s">
         <v>321</v>
       </c>
       <c r="J2" s="77" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="K2" s="61" t="s">
         <v>322</v>
@@ -4800,7 +4993,7 @@
         <v>335</v>
       </c>
       <c r="AE2" s="62" t="s">
-        <v>508</v>
+        <v>545</v>
       </c>
       <c r="AF2" s="68"/>
       <c r="AG2" s="68"/>
@@ -5050,19 +5243,19 @@
         <v>365</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="I3" s="62" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="K3" s="61" t="s">
         <v>322</v>
@@ -5071,61 +5264,61 @@
         <v>323</v>
       </c>
       <c r="M3" s="61" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="N3" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q3" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="R3" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="S3" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="O3" s="61" t="s">
-        <v>370</v>
-      </c>
-      <c r="P3" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q3" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="R3" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="S3" s="61" t="s">
+      <c r="T3" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="T3" s="61" t="s">
-        <v>208</v>
-      </c>
       <c r="U3" s="61" t="s">
-        <v>208</v>
+        <v>325</v>
       </c>
       <c r="V3" s="61" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="W3" s="61" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="X3" s="61" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="Y3" s="61" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="Z3" s="62">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA3" s="62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB3" s="62" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="AC3" s="62" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="AD3" s="62" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="AE3" s="62" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="AF3" s="68"/>
       <c r="AG3" s="68"/>
@@ -5367,22 +5560,22 @@
         <v>316</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C4" s="60"/>
       <c r="D4" s="60"/>
       <c r="E4" s="61" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H4" s="60"/>
       <c r="I4" s="62" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="J4" s="77"/>
       <c r="K4" s="61" t="s">
@@ -5392,7 +5585,7 @@
         <v>323</v>
       </c>
       <c r="M4" s="61" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="N4" s="61" t="s">
         <v>325</v>
@@ -5404,7 +5597,7 @@
         <v>327</v>
       </c>
       <c r="Q4" s="61" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="R4" s="61" t="s">
         <v>325</v>
@@ -5422,13 +5615,13 @@
         <v>329</v>
       </c>
       <c r="W4" s="61" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="X4" s="61" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Y4" s="61" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Z4" s="62">
         <v>300</v>
@@ -5437,13 +5630,13 @@
         <v>7</v>
       </c>
       <c r="AB4" s="62" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AC4" s="62" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AD4" s="62" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AE4" s="62">
         <v>56</v>
@@ -5685,16 +5878,16 @@
     </row>
     <row r="5" spans="1:115" ht="15.75">
       <c r="A5" s="50" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>74</v>
+        <v>499</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="67"/>
@@ -5811,7 +6004,7 @@
         <v>361</v>
       </c>
       <c r="DC5" s="63" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="DD5" s="63" t="s">
         <v>363</v>
@@ -5826,13 +6019,13 @@
     </row>
     <row r="6" spans="1:115" ht="15.75">
       <c r="A6" s="50" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D6" s="64" t="s">
         <v>143</v>
@@ -5952,7 +6145,7 @@
         <v>361</v>
       </c>
       <c r="DC6" s="63" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="DD6" s="63" t="s">
         <v>363</v>
@@ -5967,13 +6160,13 @@
     </row>
     <row r="7" spans="1:115" ht="15.75">
       <c r="A7" s="50" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>74</v>
@@ -6081,7 +6274,7 @@
       <c r="DA7" s="67"/>
       <c r="DB7" s="67"/>
       <c r="DC7" s="63" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="DD7" s="63" t="s">
         <v>363</v>
@@ -6096,10 +6289,10 @@
     </row>
     <row r="8" spans="1:115" ht="15.75">
       <c r="A8" s="50" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -6107,10 +6300,10 @@
         <v>365</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G8" s="62" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H8" s="77"/>
       <c r="I8" s="68"/>
@@ -6231,25 +6424,25 @@
     </row>
     <row r="9" spans="1:115" ht="15.75">
       <c r="A9" s="50" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
       <c r="E9" s="61" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H9" s="77"/>
       <c r="I9" s="62" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="J9" s="77"/>
       <c r="K9" s="67"/>
@@ -6370,10 +6563,10 @@
     </row>
     <row r="10" spans="1:115" ht="15.75">
       <c r="A10" s="50" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C10" s="60"/>
       <c r="D10" s="60"/>
@@ -6381,14 +6574,14 @@
         <v>365</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="G10" s="62" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="H10" s="77"/>
       <c r="I10" s="62" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="J10" s="77"/>
       <c r="K10" s="67"/>
@@ -6505,25 +6698,25 @@
     </row>
     <row r="11" spans="1:115" ht="15.75">
       <c r="A11" s="50" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C11" s="60"/>
       <c r="D11" s="60"/>
       <c r="E11" s="61" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="G11" s="62" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H11" s="77"/>
       <c r="I11" s="62" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="J11" s="77"/>
       <c r="K11" s="67"/>
@@ -6640,10 +6833,10 @@
     </row>
     <row r="12" spans="1:115" ht="15.75">
       <c r="A12" s="50" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
@@ -6750,7 +6943,7 @@
       <c r="DA12" s="67"/>
       <c r="DB12" s="67"/>
       <c r="DC12" s="63" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="DD12" s="63" t="s">
         <v>363</v>
@@ -6765,10 +6958,10 @@
     </row>
     <row r="13" spans="1:115" ht="15.75">
       <c r="A13" s="50" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
@@ -6875,7 +7068,7 @@
       <c r="DA13" s="67"/>
       <c r="DB13" s="67"/>
       <c r="DC13" s="63" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="DD13" s="63" t="s">
         <v>363</v>
@@ -6890,10 +7083,10 @@
     </row>
     <row r="14" spans="1:115" ht="15.75">
       <c r="A14" s="50" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
@@ -7000,7 +7193,7 @@
       <c r="DA14" s="67"/>
       <c r="DB14" s="67"/>
       <c r="DC14" s="63" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="DD14" s="63" t="s">
         <v>363</v>
@@ -7015,10 +7208,10 @@
     </row>
     <row r="15" spans="1:115" ht="15.75">
       <c r="A15" s="50" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
@@ -7136,39 +7329,39 @@
         <v>319</v>
       </c>
       <c r="DH15" s="62" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="DI15" s="62" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="DJ15" s="62" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="DK15" s="62" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:115" ht="15.75">
       <c r="A16" s="50" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="60"/>
       <c r="E16" s="61" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G16" s="62" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H16" s="77"/>
       <c r="I16" s="62" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J16" s="77"/>
       <c r="K16" s="61" t="s">
@@ -7178,13 +7371,13 @@
         <v>323</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="N16" s="61" t="s">
         <v>208</v>
       </c>
       <c r="O16" s="61" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P16" s="61" t="s">
         <v>327</v>
@@ -7226,10 +7419,10 @@
         <v>334</v>
       </c>
       <c r="AC16" s="62" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AD16" s="62" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AE16" s="62">
         <v>22</v>
@@ -7270,7 +7463,7 @@
         <v>341</v>
       </c>
       <c r="AS16" s="61" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AT16" s="62">
         <v>11</v>
@@ -7297,7 +7490,7 @@
         <v>355</v>
       </c>
       <c r="BB16" s="61" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="BC16" s="61" t="s">
         <v>208</v>
@@ -7336,13 +7529,13 @@
         <v>41</v>
       </c>
       <c r="BO16" s="61" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="BP16" s="61" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="BQ16" s="61" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="BR16" s="61" t="s">
         <v>351</v>
@@ -7351,7 +7544,7 @@
         <v>208</v>
       </c>
       <c r="BT16" s="61" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="BU16" s="61" t="s">
         <v>208</v>
@@ -7399,7 +7592,7 @@
         <v>10000</v>
       </c>
       <c r="CJ16" s="61" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="CK16" s="62">
         <v>1000000</v>
@@ -7441,10 +7634,10 @@
         <v>357</v>
       </c>
       <c r="CX16" s="61" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="CY16" s="61" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="CZ16" s="61" t="s">
         <v>360</v>
@@ -7471,25 +7664,25 @@
     </row>
     <row r="17" spans="1:115" ht="15.75">
       <c r="A17" s="50" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
       <c r="E17" s="61" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G17" s="62" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H17" s="77"/>
       <c r="I17" s="62" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="J17" s="77"/>
       <c r="K17" s="61" t="s">
@@ -7499,7 +7692,7 @@
         <v>323</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="N17" s="61" t="s">
         <v>325</v>
@@ -7508,10 +7701,10 @@
         <v>326</v>
       </c>
       <c r="P17" s="61" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="61" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="R17" s="61" t="s">
         <v>208</v>
@@ -7526,13 +7719,13 @@
         <v>208</v>
       </c>
       <c r="V17" s="61" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="W17" s="61" t="s">
         <v>353</v>
       </c>
       <c r="X17" s="61" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Y17" s="61" t="s">
         <v>360</v>
@@ -7544,13 +7737,13 @@
         <v>9</v>
       </c>
       <c r="AB17" s="62" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AC17" s="62" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="AD17" s="62" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="AE17" s="62">
         <v>44</v>
@@ -7570,19 +7763,19 @@
         <v>120000</v>
       </c>
       <c r="AL17" s="61" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AM17" s="61" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AN17" s="61" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="AO17" s="61" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="AP17" s="61" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AQ17" s="62">
         <v>5</v>
@@ -7597,7 +7790,7 @@
         <v>12</v>
       </c>
       <c r="AU17" s="61" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AV17" s="62" t="s">
         <v>343</v>
@@ -7618,7 +7811,7 @@
         <v>344</v>
       </c>
       <c r="BB17" s="61" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="BC17" s="61" t="s">
         <v>325</v>
@@ -7627,7 +7820,7 @@
         <v>208</v>
       </c>
       <c r="BE17" s="61" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="BF17" s="62">
         <v>99</v>
@@ -7660,19 +7853,19 @@
         <v>348</v>
       </c>
       <c r="BP17" s="61" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="BQ17" s="61" t="s">
         <v>350</v>
       </c>
       <c r="BR17" s="61" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="BS17" s="61" t="s">
         <v>325</v>
       </c>
       <c r="BT17" s="61" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="BU17" s="61" t="s">
         <v>325</v>
@@ -7696,13 +7889,13 @@
         <v>355</v>
       </c>
       <c r="CB17" s="61" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="CC17" s="62">
         <v>90000</v>
       </c>
       <c r="CD17" s="61" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="CE17" s="62">
         <v>8000000</v>
@@ -7711,10 +7904,10 @@
         <v>40000</v>
       </c>
       <c r="CG17" s="61" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="CH17" s="61" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="CI17" s="62">
         <v>10000</v>
@@ -7735,7 +7928,7 @@
         <v>88</v>
       </c>
       <c r="CO17" s="61" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="CP17" s="62">
         <v>14</v>
@@ -7744,7 +7937,7 @@
         <v>17</v>
       </c>
       <c r="CR17" s="61" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="CS17" s="62">
         <v>200</v>
@@ -7759,10 +7952,10 @@
         <v>600</v>
       </c>
       <c r="CW17" s="61" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="CX17" s="61" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="CY17" s="61" t="s">
         <v>359</v>
@@ -7774,7 +7967,7 @@
         <v>208</v>
       </c>
       <c r="DB17" s="61" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="DC17" s="63" t="s">
         <v>362</v>
@@ -7792,25 +7985,25 @@
     </row>
     <row r="18" spans="1:115" ht="15.75">
       <c r="A18" s="50" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
       <c r="E18" s="61" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G18" s="62" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="H18" s="77"/>
       <c r="I18" s="62" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="J18" s="77"/>
       <c r="K18" s="61" t="s">
@@ -7820,19 +8013,19 @@
         <v>323</v>
       </c>
       <c r="M18" s="61" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="N18" s="61" t="s">
         <v>208</v>
       </c>
       <c r="O18" s="61" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P18" s="61" t="s">
         <v>327</v>
       </c>
       <c r="Q18" s="61" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="R18" s="61" t="s">
         <v>325</v>
@@ -7850,13 +8043,13 @@
         <v>329</v>
       </c>
       <c r="W18" s="61" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="X18" s="61" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="Y18" s="61" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Z18" s="62">
         <v>600</v>
@@ -7865,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="AB18" s="62" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AC18" s="62" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AD18" s="62" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AE18" s="62">
         <v>66</v>
@@ -7891,13 +8084,13 @@
         <v>130000</v>
       </c>
       <c r="AL18" s="61" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AM18" s="61" t="s">
         <v>337</v>
       </c>
       <c r="AN18" s="61" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AO18" s="61" t="s">
         <v>339</v>
@@ -7936,10 +8129,10 @@
         <v>54</v>
       </c>
       <c r="BA18" s="61" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="BB18" s="61" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="BC18" s="61" t="s">
         <v>208</v>
@@ -7978,13 +8171,13 @@
         <v>36</v>
       </c>
       <c r="BO18" s="61" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="BP18" s="61" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="BQ18" s="61" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="BR18" s="61" t="s">
         <v>351</v>
@@ -7993,7 +8186,7 @@
         <v>208</v>
       </c>
       <c r="BT18" s="61" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="BU18" s="61" t="s">
         <v>208</v>
@@ -8011,19 +8204,19 @@
         <v>90</v>
       </c>
       <c r="BZ18" s="61" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="CA18" s="61" t="s">
         <v>355</v>
       </c>
       <c r="CB18" s="61" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="CC18" s="62">
         <v>80000</v>
       </c>
       <c r="CD18" s="61" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="CE18" s="62">
         <v>7000000</v>
@@ -8041,7 +8234,7 @@
         <v>10000</v>
       </c>
       <c r="CJ18" s="61" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="CK18" s="62">
         <v>1000000</v>
@@ -8065,7 +8258,7 @@
         <v>18</v>
       </c>
       <c r="CR18" s="61" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="CS18" s="62">
         <v>300</v>
@@ -8080,13 +8273,13 @@
         <v>700</v>
       </c>
       <c r="CW18" s="61" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="CX18" s="61" t="s">
         <v>358</v>
       </c>
       <c r="CY18" s="61" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="CZ18" s="61" t="s">
         <v>332</v>
@@ -8113,10 +8306,10 @@
     </row>
     <row r="19" spans="1:115" ht="15.75">
       <c r="A19" s="50" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C19" s="60"/>
       <c r="D19" s="60"/>
@@ -8223,7 +8416,7 @@
       <c r="DA19" s="67"/>
       <c r="DB19" s="67"/>
       <c r="DC19" s="63" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="DD19" s="63" t="s">
         <v>363</v>
@@ -8238,10 +8431,10 @@
     </row>
     <row r="20" spans="1:115" ht="15.75">
       <c r="A20" s="50" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="C20" s="60"/>
       <c r="D20" s="60"/>
@@ -8348,7 +8541,7 @@
       <c r="DA20" s="67"/>
       <c r="DB20" s="67"/>
       <c r="DC20" s="63" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="DD20" s="63" t="s">
         <v>363</v>
@@ -8363,10 +8556,10 @@
     </row>
     <row r="21" spans="1:115" ht="15.75">
       <c r="A21" s="50" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" s="60"/>
@@ -8473,7 +8666,7 @@
       <c r="DA21" s="67"/>
       <c r="DB21" s="67"/>
       <c r="DC21" s="63" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="DD21" s="63" t="s">
         <v>363</v>
@@ -8488,10 +8681,10 @@
     </row>
     <row r="22" spans="1:115" ht="15.75">
       <c r="A22" s="50" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C22" s="60"/>
       <c r="D22" s="60"/>
@@ -8613,10 +8806,10 @@
     </row>
     <row r="23" spans="1:115" ht="15.75">
       <c r="A23" s="50" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C23" s="60"/>
       <c r="D23" s="60"/>
@@ -8738,10 +8931,10 @@
     </row>
     <row r="24" spans="1:115" ht="15.75">
       <c r="A24" s="50" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C24" s="60"/>
       <c r="D24" s="60"/>
@@ -8863,7 +9056,7 @@
     </row>
   </sheetData>
   <dataValidations count="35">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y24 AR16:AS18 CZ2:CZ24 AR2:AR4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR16:AS18 AR2:AR4 CZ2:CZ24 Y1:Y24">
       <formula1>"Half Yearly,Monthly,Quarterly,Yearly"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E24">
@@ -8881,7 +9074,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M24">
       <formula1>"Amusement / Theme park,Construction Finance,Convention center,Hotels and Resort,House Purchase,New house,Others,Publicity and Events,Purchase of Two Wheelers,Renovation,To buy furniture,To meet personal needs,Travel Trade"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N24 S18:T18 BV17 CT16:CU18 BU16:BU18 BS16:BS18 BM16:BM18 BI16:BI18 BC16:BD18 AW16:AX18 S16:T16 R4:R24 DA2:DA24 CT2:CT4 BU2:BU4 BS2:BS4 BM2:BM4 BI2:BI4 BC2:BC4 AW2:AW4 R2:T3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S18:T18 BV17 CT16:CU18 BU16:BU18 BS16:BS18 BM16:BM18 BI16:BI18 BC16:BD18 AW16:AX18 S16:T16 R4:R24 R2:T3 AW2:AW4 BC2:BC4 BI2:BI4 BM2:BM4 BS2:BS4 BU2:BU4 CT2:CT4 DA2:DA24 N2:N24">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O24">
@@ -8896,64 +9089,64 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V24">
       <formula1>"EMI,TENOR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W24 BZ16:BZ18 BZ2:BZ4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BZ16:BZ18 BZ2:BZ4 W2:W24">
       <formula1>"Due Date,Immediate,immediate"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X24">
       <formula1>"10th of the month,11th of the month,12th of the month,13th of the month,14th of the month,15th of the month,16th of the month"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL4 AL16:AL18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL16:AL18 AL2:AL4">
       <formula1>"Balloon Payment,Equated Installment,Equated Principalm"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM4 AM16:AM18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM16:AM18 AM2:AM4">
       <formula1>"Flat,Reducing"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2:AN4 AN16:AN18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN16:AN18 AN2:AN4">
       <formula1>"Equated interest,IRR,Rule Of 78"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO2:AO4 AO16:AO18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO16:AO18 AO2:AO4">
       <formula1>"on Approved Amount,on Disbursement Amount"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP4 AP16:AP18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP16:AP18 AP2:AP4">
       <formula1>"Anniversary Date,User Selection"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU2:AU4 AU16:AU18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU16:AU18 AU2:AU4">
       <formula1>"Maximum,Minimum,Average"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA4 CO16:CO18 CG16:CG18 CA16:CA18 BA16:BA18 CO2:CO4 CG2:CG4 CA2:CA4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CO16:CO18 CG16:CG18 CA16:CA18 BA16:BA18 CA2:CA4 CG2:CG4 CO2:CO4 BA2:BA4">
       <formula1>"First Disbursement,Last Disbursement,Upon Expiry Of GPP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB4 BB16:BB18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB16:BB18 BB2:BB4">
       <formula1>"Normal Interest on 30/360 basis,Normal Interest on 30/Actual basis,Normal Interest on Actual/360 basis,Normal Interest on Actual/365 basis,Normal Interest on Actual/Actual basis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE2:BE4 BE16:BE18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE16:BE18 BE2:BE4">
       <formula1>"High,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH2:BH4 BH16:BH18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BH16:BH18 BH2:BH4">
       <formula1>"APP01"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2:BO4 BO16:BO18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO16:BO18 BO2:BO4">
       <formula1>"Normal BPI on Actual/365 basis,Normal BPI on Actual/Actual basis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2:BP4 BP16:BP18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP16:BP18 BP2:BP4">
       <formula1>"Application Date,Asset Delivery Date,Contract Signing Date,Disbursement Date,Sanction Date"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ2:BQ4 BQ16:BQ18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BQ16:BQ18 BQ2:BQ4">
       <formula1>"Adjust in 1st EMI,Inflate 1st EMI by BPI,Recover as Pre-EMI:"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR2:BR4 BR16:BR18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BR16:BR18 BR2:BR4">
       <formula1>"Advance,Arrears"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT2:BT4 BT16:BT18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BT16:BT18 BT2:BT4">
       <formula1>"More than one rate of Interest,Single Rate Of Interest,Rate Type 1,Rate Type 2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CB2:CB4 CD16:CD18 CB16:CB18 CD2:CD4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CD16:CD18 CB16:CB18 CD2:CD4 CB2:CB4">
       <formula1>"Bulk Payment on Flat Amount,Bulk Payment on Future Installments,Bulk Payment on Percentage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CH2:CH4 CJ16:CJ18 CH16:CH18 CJ2:CJ4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CJ16:CJ18 CH16:CH18 CJ2:CJ4 CH2:CH4">
       <formula1>"Flat,Percentage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CR2:CR4 CR16:CR18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CR16:CR18 CR2:CR4">
       <formula1>"No Compounding and No Capitalization,No Compounding with Capitalization,With Compounding and with Capitalization"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CW2:CW24">
